--- a/data/processed/MASTER_human-eval_DIFFS.xlsx
+++ b/data/processed/MASTER_human-eval_DIFFS.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t xml:space="preserve">source</t>
   </si>
@@ -263,6 +263,9 @@
     <t xml:space="preserve">newspaper_ampel-aus_300-400_processed.json_89</t>
   </si>
   <si>
+    <t xml:space="preserve">newspaper_ampel-aus_0-200_processed.json_170</t>
+  </si>
+  <si>
     <t xml:space="preserve">Henri</t>
   </si>
   <si>
@@ -351,6 +354,24 @@
   </si>
   <si>
     <t xml:space="preserve">newspaper_ampel-aus_0-200_processed.json_137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monika</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newspaper_ampel-aus_0-200_processed.json_152</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not realy about the coallition breakdown </t>
+  </si>
+  <si>
+    <t xml:space="preserve">newspaper_ampel-aus_0-200_processed.json_169</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newspaper_ampel-aus_0-200_processed.json_177</t>
+  </si>
+  <si>
+    <t xml:space="preserve">newspaper_ampel-aus_0-200_processed.json_197</t>
   </si>
   <si>
     <t xml:space="preserve">newspaper_ampel-aus_0-200_processed.json_200</t>
@@ -3390,13 +3411,13 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C34" t="s">
         <v>36</v>
       </c>
       <c r="D34" t="n">
-        <v>100</v>
+        <v>170</v>
       </c>
       <c r="E34" t="n">
         <v>1</v>
@@ -3423,66 +3444,54 @@
         <v>31</v>
       </c>
       <c r="M34" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P34" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="Q34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S34" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T34" t="s">
         <v>34</v>
       </c>
       <c r="U34" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="V34" t="s">
-        <v>32</v>
-      </c>
-      <c r="W34" t="s">
-        <v>31</v>
-      </c>
-      <c r="X34" t="s">
-        <v>31</v>
-      </c>
-      <c r="Y34" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z34" t="s">
-        <v>46</v>
-      </c>
-      <c r="AA34" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB34" t="s">
-        <v>46</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="W34"/>
+      <c r="X34"/>
+      <c r="Y34"/>
+      <c r="Z34"/>
+      <c r="AA34"/>
+      <c r="AB34"/>
     </row>
     <row r="35">
       <c r="A35" t="s">
         <v>28</v>
       </c>
       <c r="B35" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C35" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D35" t="n">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E35" t="n">
         <v>1</v>
@@ -3494,40 +3503,40 @@
         <v>32</v>
       </c>
       <c r="H35" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I35" t="s">
         <v>32</v>
       </c>
       <c r="J35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K35" t="s">
         <v>31</v>
       </c>
       <c r="L35" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="Q35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S35" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T35" t="s">
         <v>34</v>
@@ -3536,36 +3545,42 @@
         <v>85</v>
       </c>
       <c r="V35" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="W35" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="X35" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="Y35" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z35"/>
-      <c r="AA35"/>
-      <c r="AB35"/>
+        <v>31</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA35" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB35" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
         <v>28</v>
       </c>
       <c r="B36" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C36" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D36" t="n">
-        <v>49</v>
+        <v>94</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>31</v>
@@ -3580,31 +3595,31 @@
         <v>32</v>
       </c>
       <c r="J36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K36" t="s">
         <v>31</v>
       </c>
       <c r="L36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M36" t="s">
         <v>32</v>
       </c>
       <c r="N36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="O36" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="P36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Q36" t="s">
         <v>33</v>
       </c>
       <c r="R36" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S36" t="s">
         <v>33</v>
@@ -3619,18 +3634,16 @@
         <v>46</v>
       </c>
       <c r="W36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X36" t="s">
-        <v>87</v>
+        <v>46</v>
       </c>
       <c r="Y36" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="Z36"/>
-      <c r="AA36" t="s">
-        <v>46</v>
-      </c>
+      <c r="AA36"/>
       <c r="AB36"/>
     </row>
     <row r="37">
@@ -3638,16 +3651,16 @@
         <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C37" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D37" t="n">
-        <v>116</v>
+        <v>49</v>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F37" t="s">
         <v>31</v>
@@ -3659,34 +3672,34 @@
         <v>31</v>
       </c>
       <c r="I37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K37" t="s">
         <v>31</v>
       </c>
       <c r="L37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M37" t="s">
         <v>32</v>
       </c>
       <c r="N37" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O37" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="P37" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="Q37" t="s">
         <v>33</v>
       </c>
       <c r="R37" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S37" t="s">
         <v>33</v>
@@ -3695,21 +3708,23 @@
         <v>34</v>
       </c>
       <c r="U37" t="s">
+        <v>87</v>
+      </c>
+      <c r="V37" t="s">
+        <v>46</v>
+      </c>
+      <c r="W37" t="s">
+        <v>31</v>
+      </c>
+      <c r="X37" t="s">
         <v>88</v>
       </c>
-      <c r="V37" t="s">
-        <v>46</v>
-      </c>
-      <c r="W37" t="s">
-        <v>32</v>
-      </c>
-      <c r="X37" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y37"/>
+      <c r="Y37" t="s">
+        <v>31</v>
+      </c>
       <c r="Z37"/>
       <c r="AA37" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AB37"/>
     </row>
@@ -3718,19 +3733,19 @@
         <v>28</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>47</v>
+        <v>30</v>
       </c>
       <c r="D38" t="n">
-        <v>62</v>
+        <v>116</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G38" t="s">
         <v>32</v>
@@ -3742,7 +3757,7 @@
         <v>33</v>
       </c>
       <c r="J38" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="K38" t="s">
         <v>31</v>
@@ -3754,7 +3769,7 @@
         <v>32</v>
       </c>
       <c r="N38" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O38" t="s">
         <v>31</v>
@@ -3763,7 +3778,7 @@
         <v>33</v>
       </c>
       <c r="Q38" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R38" t="s">
         <v>31</v>
@@ -3778,16 +3793,16 @@
         <v>89</v>
       </c>
       <c r="V38" t="s">
-        <v>31</v>
-      </c>
-      <c r="W38"/>
+        <v>46</v>
+      </c>
+      <c r="W38" t="s">
+        <v>32</v>
+      </c>
       <c r="X38" t="s">
         <v>32</v>
       </c>
       <c r="Y38"/>
-      <c r="Z38" t="s">
-        <v>90</v>
-      </c>
+      <c r="Z38"/>
       <c r="AA38" t="s">
         <v>32</v>
       </c>
@@ -3798,71 +3813,79 @@
         <v>28</v>
       </c>
       <c r="B39" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" t="n">
+        <v>62</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="s">
+        <v>46</v>
+      </c>
+      <c r="G39" t="s">
+        <v>32</v>
+      </c>
+      <c r="H39" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" t="s">
+        <v>33</v>
+      </c>
+      <c r="J39" t="s">
+        <v>46</v>
+      </c>
+      <c r="K39" t="s">
+        <v>31</v>
+      </c>
+      <c r="L39" t="s">
+        <v>33</v>
+      </c>
+      <c r="M39" t="s">
+        <v>32</v>
+      </c>
+      <c r="N39" t="s">
+        <v>33</v>
+      </c>
+      <c r="O39" t="s">
+        <v>31</v>
+      </c>
+      <c r="P39" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>31</v>
+      </c>
+      <c r="R39" t="s">
+        <v>31</v>
+      </c>
+      <c r="S39" t="s">
+        <v>33</v>
+      </c>
+      <c r="T39" t="s">
+        <v>34</v>
+      </c>
+      <c r="U39" t="s">
+        <v>90</v>
+      </c>
+      <c r="V39" t="s">
+        <v>31</v>
+      </c>
+      <c r="W39"/>
+      <c r="X39" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y39"/>
+      <c r="Z39" t="s">
         <v>91</v>
       </c>
-      <c r="C39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" t="n">
-        <v>35</v>
-      </c>
-      <c r="E39" t="n">
-        <v>1</v>
-      </c>
-      <c r="F39" t="s">
-        <v>33</v>
-      </c>
-      <c r="G39" t="s">
-        <v>33</v>
-      </c>
-      <c r="H39" t="s">
-        <v>33</v>
-      </c>
-      <c r="I39" t="s">
-        <v>33</v>
-      </c>
-      <c r="J39" t="s">
-        <v>33</v>
-      </c>
-      <c r="K39" t="s">
-        <v>33</v>
-      </c>
-      <c r="L39" t="s">
-        <v>33</v>
-      </c>
-      <c r="M39" t="s">
-        <v>33</v>
-      </c>
-      <c r="N39" t="s">
-        <v>33</v>
-      </c>
-      <c r="O39" t="s">
-        <v>33</v>
-      </c>
-      <c r="P39" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>33</v>
-      </c>
-      <c r="R39" t="s">
-        <v>33</v>
-      </c>
-      <c r="S39" t="s">
-        <v>33</v>
-      </c>
-      <c r="T39" t="s">
-        <v>34</v>
-      </c>
-      <c r="U39" t="s">
-        <v>92</v>
-      </c>
-      <c r="V39"/>
-      <c r="W39"/>
-      <c r="X39"/>
-      <c r="Y39"/>
-      <c r="Z39"/>
-      <c r="AA39"/>
+      <c r="AA39" t="s">
+        <v>32</v>
+      </c>
       <c r="AB39"/>
     </row>
     <row r="40">
@@ -3870,28 +3893,28 @@
         <v>28</v>
       </c>
       <c r="B40" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C40" t="s">
-        <v>56</v>
+        <v>43</v>
       </c>
       <c r="D40" t="n">
-        <v>70</v>
+        <v>35</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="G40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J40" t="s">
         <v>33</v>
@@ -3903,16 +3926,16 @@
         <v>33</v>
       </c>
       <c r="M40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="N40" t="s">
         <v>33</v>
       </c>
       <c r="O40" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P40" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q40" t="s">
         <v>33</v>
@@ -3929,16 +3952,10 @@
       <c r="U40" t="s">
         <v>93</v>
       </c>
-      <c r="V40" t="s">
-        <v>32</v>
-      </c>
+      <c r="V40"/>
       <c r="W40"/>
-      <c r="X40" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y40" t="s">
-        <v>32</v>
-      </c>
+      <c r="X40"/>
+      <c r="Y40"/>
       <c r="Z40"/>
       <c r="AA40"/>
       <c r="AB40"/>
@@ -3948,55 +3965,55 @@
         <v>28</v>
       </c>
       <c r="B41" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="D41" t="n">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L41" t="s">
         <v>33</v>
       </c>
       <c r="M41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N41" t="s">
         <v>33</v>
       </c>
       <c r="O41" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R41" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S41" t="s">
         <v>33</v>
@@ -4014,13 +4031,11 @@
       <c r="X41" t="s">
         <v>32</v>
       </c>
-      <c r="Y41"/>
-      <c r="Z41" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA41" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y41" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z41"/>
+      <c r="AA41"/>
       <c r="AB41"/>
     </row>
     <row r="42">
@@ -4028,13 +4043,13 @@
         <v>28</v>
       </c>
       <c r="B42" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C42" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="D42" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="E42" t="n">
         <v>1</v>
@@ -4046,13 +4061,13 @@
         <v>33</v>
       </c>
       <c r="H42" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I42" t="s">
         <v>33</v>
       </c>
       <c r="J42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K42" t="s">
         <v>32</v>
@@ -4073,7 +4088,7 @@
         <v>33</v>
       </c>
       <c r="Q42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R42" t="s">
         <v>32</v>
@@ -4092,10 +4107,12 @@
       </c>
       <c r="W42"/>
       <c r="X42" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="Y42"/>
-      <c r="Z42"/>
+      <c r="Z42" t="s">
+        <v>32</v>
+      </c>
       <c r="AA42" t="s">
         <v>32</v>
       </c>
@@ -4106,13 +4123,13 @@
         <v>28</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C43" t="s">
         <v>30</v>
       </c>
       <c r="D43" t="n">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="E43" t="n">
         <v>1</v>
@@ -4124,7 +4141,7 @@
         <v>33</v>
       </c>
       <c r="H43" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I43" t="s">
         <v>33</v>
@@ -4170,7 +4187,7 @@
       </c>
       <c r="W43"/>
       <c r="X43" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Y43"/>
       <c r="Z43"/>
@@ -4181,46 +4198,46 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="B44" t="s">
-        <v>29</v>
+        <v>92</v>
       </c>
       <c r="C44" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="D44" t="n">
-        <v>18</v>
+        <v>68</v>
       </c>
       <c r="E44" t="n">
         <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H44" t="s">
         <v>32</v>
       </c>
       <c r="I44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K44" t="s">
         <v>32</v>
       </c>
       <c r="L44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M44" t="s">
         <v>32</v>
       </c>
       <c r="N44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O44" t="s">
         <v>32</v>
@@ -4229,7 +4246,7 @@
         <v>33</v>
       </c>
       <c r="Q44" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R44" t="s">
         <v>32</v>
@@ -4241,21 +4258,17 @@
         <v>34</v>
       </c>
       <c r="U44" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="V44" t="s">
-        <v>46</v>
-      </c>
-      <c r="W44" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="W44"/>
       <c r="X44" t="s">
         <v>32</v>
       </c>
       <c r="Y44"/>
-      <c r="Z44" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z44"/>
       <c r="AA44" t="s">
         <v>32</v>
       </c>
@@ -4263,7 +4276,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B45" t="s">
         <v>29</v>
@@ -4272,7 +4285,7 @@
         <v>36</v>
       </c>
       <c r="D45" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="E45" t="n">
         <v>1</v>
@@ -4290,10 +4303,10 @@
         <v>32</v>
       </c>
       <c r="J45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K45" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L45" t="s">
         <v>32</v>
@@ -4302,22 +4315,22 @@
         <v>32</v>
       </c>
       <c r="N45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P45" t="s">
         <v>33</v>
       </c>
       <c r="Q45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S45" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T45" t="s">
         <v>34</v>
@@ -4328,18 +4341,24 @@
       <c r="V45" t="s">
         <v>46</v>
       </c>
-      <c r="W45"/>
-      <c r="X45"/>
+      <c r="W45" t="s">
+        <v>32</v>
+      </c>
+      <c r="X45" t="s">
+        <v>32</v>
+      </c>
       <c r="Y45"/>
-      <c r="Z45"/>
-      <c r="AA45"/>
-      <c r="AB45" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z45" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA45" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB45"/>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B46" t="s">
         <v>29</v>
@@ -4348,7 +4367,7 @@
         <v>36</v>
       </c>
       <c r="D46" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E46" t="n">
         <v>1</v>
@@ -4357,43 +4376,43 @@
         <v>31</v>
       </c>
       <c r="G46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M46" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="O46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P46" t="s">
         <v>33</v>
       </c>
       <c r="Q46" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R46" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S46" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T46" t="s">
         <v>34</v>
@@ -4402,26 +4421,20 @@
         <v>100</v>
       </c>
       <c r="V46" t="s">
-        <v>32</v>
-      </c>
-      <c r="W46" t="s">
-        <v>32</v>
-      </c>
-      <c r="X46" t="s">
-        <v>32</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="W46"/>
+      <c r="X46"/>
       <c r="Y46"/>
-      <c r="Z46" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA46" t="s">
-        <v>31</v>
-      </c>
-      <c r="AB46"/>
+      <c r="Z46"/>
+      <c r="AA46"/>
+      <c r="AB46" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B47" t="s">
         <v>29</v>
@@ -4430,7 +4443,7 @@
         <v>36</v>
       </c>
       <c r="D47" t="n">
-        <v>70</v>
+        <v>31</v>
       </c>
       <c r="E47" t="n">
         <v>1</v>
@@ -4439,28 +4452,28 @@
         <v>31</v>
       </c>
       <c r="G47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H47" t="s">
         <v>31</v>
       </c>
       <c r="I47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J47" t="s">
         <v>32</v>
       </c>
       <c r="K47" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L47" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M47" t="s">
         <v>31</v>
       </c>
       <c r="N47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O47" t="s">
         <v>31</v>
@@ -4497,13 +4510,13 @@
         <v>32</v>
       </c>
       <c r="AA47" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AB47"/>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B48" t="s">
         <v>29</v>
@@ -4512,49 +4525,49 @@
         <v>36</v>
       </c>
       <c r="D48" t="n">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E48" t="n">
         <v>1</v>
       </c>
       <c r="F48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G48" t="s">
         <v>32</v>
       </c>
       <c r="H48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M48" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N48" t="s">
         <v>32</v>
       </c>
       <c r="O48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P48" t="s">
         <v>33</v>
       </c>
       <c r="Q48" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R48" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S48" t="s">
         <v>33</v>
@@ -4571,27 +4584,33 @@
       <c r="W48" t="s">
         <v>32</v>
       </c>
-      <c r="X48"/>
+      <c r="X48" t="s">
+        <v>32</v>
+      </c>
       <c r="Y48"/>
-      <c r="Z48"/>
-      <c r="AA48"/>
+      <c r="Z48" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA48" t="s">
+        <v>32</v>
+      </c>
       <c r="AB48"/>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="C49" t="s">
         <v>36</v>
       </c>
       <c r="D49" t="n">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="E49" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>32</v>
@@ -4600,19 +4619,19 @@
         <v>32</v>
       </c>
       <c r="H49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J49" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K49" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M49" t="s">
         <v>32</v>
@@ -4621,16 +4640,16 @@
         <v>32</v>
       </c>
       <c r="O49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P49" t="s">
         <v>33</v>
       </c>
       <c r="Q49" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="R49" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S49" t="s">
         <v>33</v>
@@ -4647,21 +4666,15 @@
       <c r="W49" t="s">
         <v>32</v>
       </c>
-      <c r="X49" t="s">
-        <v>32</v>
-      </c>
+      <c r="X49"/>
       <c r="Y49"/>
-      <c r="Z49" t="s">
-        <v>87</v>
-      </c>
-      <c r="AA49" t="s">
-        <v>46</v>
-      </c>
+      <c r="Z49"/>
+      <c r="AA49"/>
       <c r="AB49"/>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s">
         <v>42</v>
@@ -4670,72 +4683,80 @@
         <v>36</v>
       </c>
       <c r="D50" t="n">
-        <v>106</v>
+        <v>91</v>
       </c>
       <c r="E50" t="n">
         <v>0</v>
       </c>
       <c r="F50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="K50" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M50" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P50" t="s">
         <v>33</v>
       </c>
       <c r="Q50" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="R50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S50" t="s">
         <v>33</v>
       </c>
       <c r="T50" t="s">
+        <v>34</v>
+      </c>
+      <c r="U50" t="s">
         <v>104</v>
       </c>
-      <c r="U50" t="s">
-        <v>105</v>
-      </c>
       <c r="V50" t="s">
         <v>32</v>
       </c>
-      <c r="W50"/>
-      <c r="X50"/>
+      <c r="W50" t="s">
+        <v>32</v>
+      </c>
+      <c r="X50" t="s">
+        <v>32</v>
+      </c>
       <c r="Y50"/>
-      <c r="Z50"/>
-      <c r="AA50"/>
+      <c r="Z50" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA50" t="s">
+        <v>46</v>
+      </c>
       <c r="AB50"/>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B51" t="s">
         <v>42</v>
@@ -4744,13 +4765,13 @@
         <v>36</v>
       </c>
       <c r="D51" t="n">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="E51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G51" t="s">
         <v>33</v>
@@ -4759,19 +4780,19 @@
         <v>33</v>
       </c>
       <c r="I51" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="J51" t="s">
         <v>33</v>
       </c>
       <c r="K51" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L51" t="s">
         <v>33</v>
       </c>
       <c r="M51" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N51" t="s">
         <v>33</v>
@@ -4780,19 +4801,19 @@
         <v>33</v>
       </c>
       <c r="P51" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="Q51" t="s">
         <v>33</v>
       </c>
       <c r="R51" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S51" t="s">
         <v>33</v>
       </c>
       <c r="T51" t="s">
-        <v>34</v>
+        <v>105</v>
       </c>
       <c r="U51" t="s">
         <v>106</v>
@@ -4802,18 +4823,14 @@
       </c>
       <c r="W51"/>
       <c r="X51"/>
-      <c r="Y51" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y51"/>
       <c r="Z51"/>
-      <c r="AA51" t="s">
-        <v>32</v>
-      </c>
+      <c r="AA51"/>
       <c r="AB51"/>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B52" t="s">
         <v>42</v>
@@ -4822,28 +4839,28 @@
         <v>36</v>
       </c>
       <c r="D52" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G52" t="s">
         <v>33</v>
       </c>
       <c r="H52" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I52" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="J52" t="s">
         <v>33</v>
       </c>
       <c r="K52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L52" t="s">
         <v>33</v>
@@ -4855,16 +4872,16 @@
         <v>33</v>
       </c>
       <c r="O52" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="P52" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="Q52" t="s">
         <v>33</v>
       </c>
       <c r="R52" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S52" t="s">
         <v>33</v>
@@ -4876,35 +4893,37 @@
         <v>107</v>
       </c>
       <c r="V52" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="W52"/>
-      <c r="X52" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y52"/>
+      <c r="X52"/>
+      <c r="Y52" t="s">
+        <v>32</v>
+      </c>
       <c r="Z52"/>
-      <c r="AA52"/>
+      <c r="AA52" t="s">
+        <v>32</v>
+      </c>
       <c r="AB52"/>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C53" t="s">
         <v>36</v>
       </c>
       <c r="D53" t="n">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="E53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G53" t="s">
         <v>33</v>
@@ -4913,13 +4932,13 @@
         <v>31</v>
       </c>
       <c r="I53" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J53" t="s">
         <v>33</v>
       </c>
       <c r="K53" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L53" t="s">
         <v>33</v>
@@ -4931,7 +4950,7 @@
         <v>33</v>
       </c>
       <c r="O53" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P53" t="s">
         <v>33</v>
@@ -4940,7 +4959,7 @@
         <v>33</v>
       </c>
       <c r="R53" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="S53" t="s">
         <v>33</v>
@@ -4952,22 +4971,20 @@
         <v>108</v>
       </c>
       <c r="V53" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="W53"/>
       <c r="X53" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="Y53"/>
       <c r="Z53"/>
-      <c r="AA53" t="s">
-        <v>32</v>
-      </c>
+      <c r="AA53"/>
       <c r="AB53"/>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B54" t="s">
         <v>49</v>
@@ -4976,49 +4993,49 @@
         <v>36</v>
       </c>
       <c r="D54" t="n">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E54" t="n">
         <v>1</v>
       </c>
       <c r="F54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H54" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J54" t="s">
         <v>33</v>
       </c>
       <c r="K54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L54" t="s">
         <v>33</v>
       </c>
       <c r="M54" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O54" t="s">
         <v>32</v>
       </c>
       <c r="P54" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q54" t="s">
         <v>33</v>
       </c>
       <c r="R54" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="S54" t="s">
         <v>33</v>
@@ -5029,23 +5046,23 @@
       <c r="U54" t="s">
         <v>109</v>
       </c>
-      <c r="V54"/>
-      <c r="W54" t="s">
-        <v>32</v>
-      </c>
+      <c r="V54" t="s">
+        <v>32</v>
+      </c>
+      <c r="W54"/>
       <c r="X54" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y54" t="s">
-        <v>32</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="Y54"/>
       <c r="Z54"/>
-      <c r="AA54"/>
+      <c r="AA54" t="s">
+        <v>32</v>
+      </c>
       <c r="AB54"/>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B55" t="s">
         <v>49</v>
@@ -5054,40 +5071,40 @@
         <v>36</v>
       </c>
       <c r="D55" t="n">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E55" t="n">
         <v>1</v>
       </c>
       <c r="F55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I55" t="s">
         <v>32</v>
       </c>
       <c r="J55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K55" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L55" t="s">
         <v>33</v>
       </c>
       <c r="M55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N55" t="s">
         <v>32</v>
       </c>
       <c r="O55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P55" t="s">
         <v>32</v>
@@ -5096,7 +5113,7 @@
         <v>33</v>
       </c>
       <c r="R55" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S55" t="s">
         <v>33</v>
@@ -5107,11 +5124,9 @@
       <c r="U55" t="s">
         <v>110</v>
       </c>
-      <c r="V55" t="s">
-        <v>32</v>
-      </c>
+      <c r="V55"/>
       <c r="W55" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="X55" t="s">
         <v>32</v>
@@ -5120,14 +5135,12 @@
         <v>32</v>
       </c>
       <c r="Z55"/>
-      <c r="AA55" t="s">
-        <v>46</v>
-      </c>
+      <c r="AA55"/>
       <c r="AB55"/>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B56" t="s">
         <v>49</v>
@@ -5136,16 +5149,16 @@
         <v>36</v>
       </c>
       <c r="D56" t="n">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="E56" t="n">
         <v>1</v>
       </c>
       <c r="F56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G56" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
         <v>31</v>
@@ -5154,31 +5167,31 @@
         <v>32</v>
       </c>
       <c r="J56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K56" t="s">
         <v>31</v>
       </c>
       <c r="L56" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M56" t="s">
         <v>32</v>
       </c>
       <c r="N56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O56" t="s">
         <v>31</v>
       </c>
       <c r="P56" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q56" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="R56" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S56" t="s">
         <v>33</v>
@@ -5190,24 +5203,26 @@
         <v>111</v>
       </c>
       <c r="V56" t="s">
-        <v>46</v>
-      </c>
-      <c r="W56"/>
+        <v>32</v>
+      </c>
+      <c r="W56" t="s">
+        <v>31</v>
+      </c>
       <c r="X56" t="s">
         <v>32</v>
       </c>
-      <c r="Y56"/>
-      <c r="Z56" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y56" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z56"/>
       <c r="AA56" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AB56"/>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B57" t="s">
         <v>49</v>
@@ -5216,7 +5231,7 @@
         <v>36</v>
       </c>
       <c r="D57" t="n">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="E57" t="n">
         <v>1</v>
@@ -5234,25 +5249,25 @@
         <v>32</v>
       </c>
       <c r="J57" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K57" t="s">
         <v>31</v>
       </c>
       <c r="L57" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O57" t="s">
         <v>31</v>
       </c>
       <c r="P57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q57" t="s">
         <v>31</v>
@@ -5270,19 +5285,15 @@
         <v>112</v>
       </c>
       <c r="V57" t="s">
-        <v>32</v>
-      </c>
-      <c r="W57" t="s">
-        <v>32</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="W57"/>
       <c r="X57" t="s">
         <v>32</v>
       </c>
-      <c r="Y57" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y57"/>
       <c r="Z57" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA57" t="s">
         <v>32</v>
@@ -5291,34 +5302,34 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B58" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="C58" t="s">
         <v>36</v>
       </c>
       <c r="D58" t="n">
-        <v>200</v>
+        <v>137</v>
       </c>
       <c r="E58" t="n">
         <v>1</v>
       </c>
       <c r="F58" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="G58" t="s">
         <v>32</v>
       </c>
       <c r="H58" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J58" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="K58" t="s">
         <v>31</v>
@@ -5327,19 +5338,19 @@
         <v>33</v>
       </c>
       <c r="M58" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="N58" t="s">
         <v>32</v>
       </c>
       <c r="O58" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="P58" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q58" t="s">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="R58" t="s">
         <v>31</v>
@@ -5359,10 +5370,14 @@
       <c r="W58" t="s">
         <v>32</v>
       </c>
-      <c r="X58"/>
-      <c r="Y58"/>
+      <c r="X58" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y58" t="s">
+        <v>32</v>
+      </c>
       <c r="Z58" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="AA58" t="s">
         <v>32</v>
@@ -5371,46 +5386,46 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B59" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="C59" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D59" t="n">
-        <v>59</v>
+        <v>152</v>
       </c>
       <c r="E59" t="n">
         <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I59" t="s">
         <v>33</v>
       </c>
       <c r="J59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="K59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M59" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O59" t="s">
         <v>32</v>
@@ -5419,10 +5434,10 @@
         <v>33</v>
       </c>
       <c r="Q59" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R59" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S59" t="s">
         <v>33</v>
@@ -5431,130 +5446,118 @@
         <v>34</v>
       </c>
       <c r="U59" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="V59" t="s">
         <v>32</v>
       </c>
-      <c r="W59" t="s">
-        <v>32</v>
-      </c>
+      <c r="W59"/>
       <c r="X59" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Y59"/>
-      <c r="Z59" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA59"/>
+      <c r="Z59"/>
+      <c r="AA59" t="s">
+        <v>46</v>
+      </c>
       <c r="AB59"/>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B60" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="C60" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D60" t="n">
-        <v>77</v>
+        <v>169</v>
       </c>
       <c r="E60" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I60" t="s">
         <v>33</v>
       </c>
       <c r="J60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K60" t="s">
         <v>33</v>
       </c>
       <c r="L60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P60" t="s">
         <v>33</v>
       </c>
       <c r="Q60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R60" t="s">
         <v>33</v>
       </c>
       <c r="S60" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T60" t="s">
-        <v>34</v>
+        <v>116</v>
       </c>
       <c r="U60" t="s">
-        <v>115</v>
-      </c>
-      <c r="V60" t="s">
-        <v>32</v>
-      </c>
-      <c r="W60" t="s">
-        <v>32</v>
-      </c>
-      <c r="X60" t="s">
-        <v>32</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="V60"/>
+      <c r="W60"/>
+      <c r="X60"/>
       <c r="Y60"/>
-      <c r="Z60" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z60"/>
       <c r="AA60"/>
-      <c r="AB60" t="s">
-        <v>32</v>
-      </c>
+      <c r="AB60"/>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B61" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="C61" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="D61" t="n">
-        <v>99</v>
+        <v>177</v>
       </c>
       <c r="E61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G61" t="s">
         <v>32</v>
       </c>
       <c r="H61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I61" t="s">
         <v>33</v>
@@ -5566,13 +5569,13 @@
         <v>31</v>
       </c>
       <c r="L61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M61" t="s">
         <v>32</v>
       </c>
       <c r="N61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O61" t="s">
         <v>32</v>
@@ -5581,92 +5584,92 @@
         <v>33</v>
       </c>
       <c r="Q61" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="R61" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S61" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T61" t="s">
         <v>34</v>
       </c>
       <c r="U61" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="V61" t="s">
-        <v>32</v>
-      </c>
-      <c r="W61"/>
+        <v>46</v>
+      </c>
+      <c r="W61" t="s">
+        <v>32</v>
+      </c>
       <c r="X61" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Y61"/>
       <c r="Z61" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AA61" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB61" t="s">
-        <v>32</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="AB61"/>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B62" t="s">
-        <v>64</v>
+        <v>114</v>
       </c>
       <c r="C62" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D62" t="n">
-        <v>1</v>
+        <v>197</v>
       </c>
       <c r="E62" t="n">
         <v>1</v>
       </c>
       <c r="F62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G62" t="s">
         <v>32</v>
       </c>
       <c r="H62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I62" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="J62" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="K62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L62" t="s">
         <v>33</v>
       </c>
       <c r="M62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N62" t="s">
         <v>32</v>
       </c>
       <c r="O62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P62" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="Q62" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R62" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S62" t="s">
         <v>33</v>
@@ -5675,7 +5678,7 @@
         <v>34</v>
       </c>
       <c r="U62" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="V62" t="s">
         <v>32</v>
@@ -5686,10 +5689,10 @@
       <c r="X62" t="s">
         <v>32</v>
       </c>
-      <c r="Y62" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z62"/>
+      <c r="Y62"/>
+      <c r="Z62" t="s">
+        <v>31</v>
+      </c>
       <c r="AA62" t="s">
         <v>32</v>
       </c>
@@ -5697,58 +5700,58 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B63" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C63" t="s">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="D63" t="n">
-        <v>60</v>
+        <v>200</v>
       </c>
       <c r="E63" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="G63" t="s">
         <v>32</v>
       </c>
       <c r="H63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J63" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="K63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M63" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="N63" t="s">
         <v>32</v>
       </c>
       <c r="O63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P63" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q63" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="R63" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S63" t="s">
         <v>33</v>
@@ -5757,7 +5760,7 @@
         <v>34</v>
       </c>
       <c r="U63" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="V63" t="s">
         <v>32</v>
@@ -5765,12 +5768,8 @@
       <c r="W63" t="s">
         <v>32</v>
       </c>
-      <c r="X63" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y63" t="s">
-        <v>32</v>
-      </c>
+      <c r="X63"/>
+      <c r="Y63"/>
       <c r="Z63" t="s">
         <v>32</v>
       </c>
@@ -5781,16 +5780,16 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B64" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C64" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D64" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="E64" t="n">
         <v>1</v>
@@ -5799,37 +5798,37 @@
         <v>32</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I64" t="s">
         <v>33</v>
       </c>
       <c r="J64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M64" t="s">
         <v>32</v>
       </c>
       <c r="N64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O64" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P64" t="s">
         <v>33</v>
       </c>
       <c r="Q64" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R64" t="s">
         <v>33</v>
@@ -5841,106 +5840,118 @@
         <v>34</v>
       </c>
       <c r="U64" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="V64" t="s">
         <v>32</v>
       </c>
-      <c r="W64"/>
+      <c r="W64" t="s">
+        <v>32</v>
+      </c>
       <c r="X64" t="s">
         <v>32</v>
       </c>
       <c r="Y64"/>
-      <c r="Z64"/>
+      <c r="Z64" t="s">
+        <v>32</v>
+      </c>
       <c r="AA64"/>
       <c r="AB64"/>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C65" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D65" t="n">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I65" t="s">
         <v>33</v>
       </c>
       <c r="J65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K65" t="s">
         <v>33</v>
       </c>
       <c r="L65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M65" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P65" t="s">
         <v>33</v>
       </c>
       <c r="Q65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R65" t="s">
         <v>33</v>
       </c>
       <c r="S65" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T65" t="s">
         <v>34</v>
       </c>
       <c r="U65" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="V65" t="s">
         <v>32</v>
       </c>
-      <c r="W65"/>
-      <c r="X65"/>
+      <c r="W65" t="s">
+        <v>32</v>
+      </c>
+      <c r="X65" t="s">
+        <v>32</v>
+      </c>
       <c r="Y65"/>
-      <c r="Z65"/>
+      <c r="Z65" t="s">
+        <v>32</v>
+      </c>
       <c r="AA65"/>
-      <c r="AB65"/>
+      <c r="AB65" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B66" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C66" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
       <c r="D66" t="n">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="E66" t="n">
         <v>1</v>
@@ -5952,19 +5963,19 @@
         <v>32</v>
       </c>
       <c r="H66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I66" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K66" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M66" t="s">
         <v>32</v>
@@ -5973,25 +5984,25 @@
         <v>33</v>
       </c>
       <c r="O66" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P66" t="s">
         <v>33</v>
       </c>
       <c r="Q66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S66" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T66" t="s">
         <v>34</v>
       </c>
       <c r="U66" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="V66" t="s">
         <v>32</v>
@@ -6001,22 +6012,28 @@
         <v>32</v>
       </c>
       <c r="Y66"/>
-      <c r="Z66"/>
-      <c r="AA66"/>
-      <c r="AB66"/>
+      <c r="Z66" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA66" t="s">
+        <v>46</v>
+      </c>
+      <c r="AB66" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B67" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C67" t="s">
         <v>47</v>
       </c>
       <c r="D67" t="n">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="E67" t="n">
         <v>1</v>
@@ -6031,16 +6048,16 @@
         <v>32</v>
       </c>
       <c r="I67" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="J67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K67" t="s">
         <v>32</v>
       </c>
       <c r="L67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M67" t="s">
         <v>32</v>
@@ -6052,22 +6069,22 @@
         <v>32</v>
       </c>
       <c r="P67" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Q67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R67" t="s">
         <v>32</v>
       </c>
       <c r="S67" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T67" t="s">
         <v>34</v>
       </c>
       <c r="U67" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="V67" t="s">
         <v>32</v>
@@ -6081,28 +6098,24 @@
       <c r="Y67" t="s">
         <v>32</v>
       </c>
-      <c r="Z67" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z67"/>
       <c r="AA67" t="s">
         <v>32</v>
       </c>
-      <c r="AB67" t="s">
-        <v>32</v>
-      </c>
+      <c r="AB67"/>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B68" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C68" t="s">
         <v>47</v>
       </c>
       <c r="D68" t="n">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="E68" t="n">
         <v>0</v>
@@ -6114,22 +6127,22 @@
         <v>32</v>
       </c>
       <c r="H68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I68" t="s">
         <v>32</v>
       </c>
       <c r="J68" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="K68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L68" t="s">
         <v>32</v>
       </c>
       <c r="M68" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N68" t="s">
         <v>32</v>
@@ -6144,51 +6157,49 @@
         <v>32</v>
       </c>
       <c r="R68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S68" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="T68" t="s">
         <v>34</v>
       </c>
       <c r="U68" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="V68" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="W68" t="s">
         <v>32</v>
       </c>
       <c r="X68" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="Y68" t="s">
         <v>32</v>
       </c>
       <c r="Z68" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="AA68" t="s">
         <v>32</v>
       </c>
-      <c r="AB68" t="s">
-        <v>32</v>
-      </c>
+      <c r="AB68"/>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B69" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D69" t="n">
-        <v>5</v>
+        <v>66</v>
       </c>
       <c r="E69" t="n">
         <v>1</v>
@@ -6209,7 +6220,7 @@
         <v>33</v>
       </c>
       <c r="K69" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L69" t="s">
         <v>33</v>
@@ -6239,7 +6250,7 @@
         <v>34</v>
       </c>
       <c r="U69" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="V69" t="s">
         <v>32</v>
@@ -6255,58 +6266,58 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B70" t="s">
+        <v>64</v>
+      </c>
+      <c r="C70" t="s">
+        <v>47</v>
+      </c>
+      <c r="D70" t="n">
         <v>70</v>
       </c>
-      <c r="C70" t="s">
-        <v>30</v>
-      </c>
-      <c r="D70" t="n">
-        <v>6</v>
-      </c>
       <c r="E70" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
         <v>31</v>
       </c>
       <c r="G70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H70" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K70" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M70" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N70" t="s">
         <v>33</v>
       </c>
       <c r="O70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="P70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S70" t="s">
         <v>33</v>
@@ -6315,38 +6326,30 @@
         <v>34</v>
       </c>
       <c r="U70" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="V70" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="W70"/>
-      <c r="X70" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y70" t="s">
-        <v>32</v>
-      </c>
-      <c r="Z70" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA70" t="s">
-        <v>46</v>
-      </c>
+      <c r="X70"/>
+      <c r="Y70"/>
+      <c r="Z70"/>
+      <c r="AA70"/>
       <c r="AB70"/>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B71" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C71" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D71" t="n">
-        <v>7</v>
+        <v>73</v>
       </c>
       <c r="E71" t="n">
         <v>1</v>
@@ -6355,19 +6358,19 @@
         <v>32</v>
       </c>
       <c r="G71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H71" t="s">
         <v>31</v>
       </c>
       <c r="I71" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J71" t="s">
         <v>33</v>
       </c>
       <c r="K71" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L71" t="s">
         <v>33</v>
@@ -6379,7 +6382,7 @@
         <v>33</v>
       </c>
       <c r="O71" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P71" t="s">
         <v>33</v>
@@ -6397,14 +6400,14 @@
         <v>34</v>
       </c>
       <c r="U71" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="V71" t="s">
         <v>32</v>
       </c>
       <c r="W71"/>
       <c r="X71" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="Y71"/>
       <c r="Z71"/>
@@ -6413,16 +6416,16 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B72" t="s">
+        <v>70</v>
+      </c>
+      <c r="C72" t="s">
+        <v>47</v>
+      </c>
+      <c r="D72" t="n">
         <v>78</v>
-      </c>
-      <c r="C72" t="s">
-        <v>30</v>
-      </c>
-      <c r="D72" t="n">
-        <v>39</v>
       </c>
       <c r="E72" t="n">
         <v>1</v>
@@ -6434,147 +6437,167 @@
         <v>32</v>
       </c>
       <c r="H72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I72" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="J72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K72" t="s">
         <v>32</v>
       </c>
       <c r="L72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M72" t="s">
         <v>32</v>
       </c>
       <c r="N72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O72" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S72" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T72" t="s">
         <v>34</v>
       </c>
       <c r="U72" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="V72" t="s">
         <v>32</v>
       </c>
-      <c r="W72"/>
+      <c r="W72" t="s">
+        <v>32</v>
+      </c>
       <c r="X72" t="s">
         <v>32</v>
       </c>
-      <c r="Y72"/>
-      <c r="Z72"/>
-      <c r="AA72"/>
-      <c r="AB72"/>
+      <c r="Y72" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z72" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA72" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB72" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B73" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C73" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="D73" t="n">
-        <v>49</v>
+        <v>96</v>
       </c>
       <c r="E73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H73" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="I73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J73" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="K73" t="s">
         <v>31</v>
       </c>
       <c r="L73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M73" t="s">
         <v>32</v>
       </c>
       <c r="N73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O73" t="s">
         <v>32</v>
       </c>
       <c r="P73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R73" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="S73" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="T73" t="s">
         <v>34</v>
       </c>
       <c r="U73" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="V73" t="s">
-        <v>32</v>
-      </c>
-      <c r="W73"/>
-      <c r="X73"/>
-      <c r="Y73"/>
-      <c r="Z73"/>
+        <v>46</v>
+      </c>
+      <c r="W73" t="s">
+        <v>32</v>
+      </c>
+      <c r="X73" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z73" t="s">
+        <v>31</v>
+      </c>
       <c r="AA73" t="s">
-        <v>46</v>
-      </c>
-      <c r="AB73"/>
+        <v>32</v>
+      </c>
+      <c r="AB73" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B74" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C74" t="s">
         <v>30</v>
       </c>
       <c r="D74" t="n">
-        <v>62</v>
+        <v>5</v>
       </c>
       <c r="E74" t="n">
         <v>1</v>
@@ -6583,40 +6606,40 @@
         <v>32</v>
       </c>
       <c r="G74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H74" t="s">
         <v>31</v>
       </c>
       <c r="I74" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="J74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K74" t="s">
         <v>31</v>
       </c>
       <c r="L74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M74" t="s">
         <v>32</v>
       </c>
       <c r="N74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O74" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q74" t="s">
         <v>33</v>
       </c>
       <c r="R74" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S74" t="s">
         <v>33</v>
@@ -6625,44 +6648,38 @@
         <v>34</v>
       </c>
       <c r="U74" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="V74" t="s">
         <v>32</v>
       </c>
-      <c r="W74" t="s">
-        <v>32</v>
-      </c>
+      <c r="W74"/>
       <c r="X74" t="s">
-        <v>46</v>
-      </c>
-      <c r="Y74" t="s">
-        <v>31</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="Y74"/>
       <c r="Z74"/>
-      <c r="AA74" t="s">
-        <v>46</v>
-      </c>
+      <c r="AA74"/>
       <c r="AB74"/>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B75" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C75" t="s">
         <v>30</v>
       </c>
       <c r="D75" t="n">
-        <v>64</v>
+        <v>6</v>
       </c>
       <c r="E75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="G75" t="s">
         <v>32</v>
@@ -6677,7 +6694,7 @@
         <v>32</v>
       </c>
       <c r="K75" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L75" t="s">
         <v>32</v>
@@ -6686,10 +6703,10 @@
         <v>32</v>
       </c>
       <c r="N75" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O75" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P75" t="s">
         <v>32</v>
@@ -6707,16 +6724,14 @@
         <v>34</v>
       </c>
       <c r="U75" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="V75" t="s">
-        <v>32</v>
-      </c>
-      <c r="W75" t="s">
-        <v>32</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="W75"/>
       <c r="X75" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Y75" t="s">
         <v>32</v>
@@ -6725,22 +6740,22 @@
         <v>32</v>
       </c>
       <c r="AA75" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AB75"/>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B76" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C76" t="s">
         <v>30</v>
       </c>
       <c r="D76" t="n">
-        <v>69</v>
+        <v>7</v>
       </c>
       <c r="E76" t="n">
         <v>1</v>
@@ -6761,7 +6776,7 @@
         <v>33</v>
       </c>
       <c r="K76" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L76" t="s">
         <v>33</v>
@@ -6773,7 +6788,7 @@
         <v>33</v>
       </c>
       <c r="O76" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P76" t="s">
         <v>33</v>
@@ -6782,7 +6797,7 @@
         <v>33</v>
       </c>
       <c r="R76" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S76" t="s">
         <v>33</v>
@@ -6791,34 +6806,32 @@
         <v>34</v>
       </c>
       <c r="U76" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="V76" t="s">
         <v>32</v>
       </c>
       <c r="W76"/>
       <c r="X76" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Y76"/>
       <c r="Z76"/>
-      <c r="AA76" t="s">
-        <v>32</v>
-      </c>
+      <c r="AA76"/>
       <c r="AB76"/>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B77" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C77" t="s">
         <v>30</v>
       </c>
       <c r="D77" t="n">
-        <v>86</v>
+        <v>39</v>
       </c>
       <c r="E77" t="n">
         <v>1</v>
@@ -6827,13 +6840,13 @@
         <v>32</v>
       </c>
       <c r="G77" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I77" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="J77" t="s">
         <v>33</v>
@@ -6851,7 +6864,7 @@
         <v>33</v>
       </c>
       <c r="O77" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P77" t="s">
         <v>33</v>
@@ -6860,7 +6873,7 @@
         <v>33</v>
       </c>
       <c r="R77" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S77" t="s">
         <v>33</v>
@@ -6869,7 +6882,7 @@
         <v>34</v>
       </c>
       <c r="U77" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="V77" t="s">
         <v>32</v>
@@ -6880,44 +6893,42 @@
       </c>
       <c r="Y77"/>
       <c r="Z77"/>
-      <c r="AA77" t="s">
-        <v>32</v>
-      </c>
+      <c r="AA77"/>
       <c r="AB77"/>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B78" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C78" t="s">
         <v>30</v>
       </c>
       <c r="D78" t="n">
-        <v>99</v>
+        <v>49</v>
       </c>
       <c r="E78" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
         <v>32</v>
       </c>
       <c r="G78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H78" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="I78" t="s">
         <v>33</v>
       </c>
       <c r="J78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K78" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L78" t="s">
         <v>33</v>
@@ -6935,7 +6946,7 @@
         <v>33</v>
       </c>
       <c r="Q78" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R78" t="s">
         <v>32</v>
@@ -6947,75 +6958,71 @@
         <v>34</v>
       </c>
       <c r="U78" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="V78" t="s">
         <v>32</v>
       </c>
       <c r="W78"/>
-      <c r="X78" t="s">
-        <v>46</v>
-      </c>
+      <c r="X78"/>
       <c r="Y78"/>
-      <c r="Z78" t="s">
-        <v>32</v>
-      </c>
+      <c r="Z78"/>
       <c r="AA78" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="AB78"/>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B79" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C79" t="s">
         <v>30</v>
       </c>
       <c r="D79" t="n">
-        <v>107</v>
+        <v>62</v>
       </c>
       <c r="E79" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F79" t="s">
         <v>32</v>
       </c>
       <c r="G79" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="H79" t="s">
         <v>31</v>
       </c>
       <c r="I79" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="J79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K79" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M79" t="s">
         <v>32</v>
       </c>
       <c r="N79" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="O79" t="s">
         <v>32</v>
       </c>
       <c r="P79" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q79" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R79" t="s">
         <v>32</v>
@@ -7027,7 +7034,7 @@
         <v>34</v>
       </c>
       <c r="U79" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="V79" t="s">
         <v>32</v>
@@ -7038,23 +7045,27 @@
       <c r="X79" t="s">
         <v>46</v>
       </c>
-      <c r="Y79"/>
+      <c r="Y79" t="s">
+        <v>31</v>
+      </c>
       <c r="Z79"/>
-      <c r="AA79"/>
+      <c r="AA79" t="s">
+        <v>46</v>
+      </c>
       <c r="AB79"/>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B80" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="C80" t="s">
         <v>30</v>
       </c>
       <c r="D80" t="n">
-        <v>117</v>
+        <v>64</v>
       </c>
       <c r="E80" t="n">
         <v>1</v>
@@ -7063,37 +7074,37 @@
         <v>32</v>
       </c>
       <c r="G80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K80" t="s">
         <v>32</v>
       </c>
       <c r="L80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M80" t="s">
         <v>32</v>
       </c>
       <c r="N80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="O80" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="Q80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R80" t="s">
         <v>32</v>
@@ -7105,17 +7116,23 @@
         <v>34</v>
       </c>
       <c r="U80" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="V80" t="s">
         <v>32</v>
       </c>
-      <c r="W80"/>
+      <c r="W80" t="s">
+        <v>32</v>
+      </c>
       <c r="X80" t="s">
         <v>32</v>
       </c>
-      <c r="Y80"/>
-      <c r="Z80"/>
+      <c r="Y80" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z80" t="s">
+        <v>32</v>
+      </c>
       <c r="AA80" t="s">
         <v>32</v>
       </c>
@@ -7123,16 +7140,16 @@
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B81" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C81" t="s">
         <v>30</v>
       </c>
       <c r="D81" t="n">
-        <v>120</v>
+        <v>69</v>
       </c>
       <c r="E81" t="n">
         <v>1</v>
@@ -7141,19 +7158,19 @@
         <v>32</v>
       </c>
       <c r="G81" t="s">
-        <v>46</v>
+        <v>33</v>
       </c>
       <c r="H81" t="s">
         <v>31</v>
       </c>
       <c r="I81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J81" t="s">
         <v>33</v>
       </c>
       <c r="K81" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L81" t="s">
         <v>33</v>
@@ -7162,7 +7179,7 @@
         <v>32</v>
       </c>
       <c r="N81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O81" t="s">
         <v>31</v>
@@ -7171,10 +7188,10 @@
         <v>33</v>
       </c>
       <c r="Q81" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="R81" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="S81" t="s">
         <v>33</v>
@@ -7183,76 +7200,76 @@
         <v>34</v>
       </c>
       <c r="U81" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="V81" t="s">
         <v>32</v>
       </c>
-      <c r="W81" t="s">
-        <v>31</v>
-      </c>
+      <c r="W81"/>
       <c r="X81" t="s">
         <v>32</v>
       </c>
       <c r="Y81"/>
       <c r="Z81"/>
-      <c r="AA81"/>
+      <c r="AA81" t="s">
+        <v>32</v>
+      </c>
       <c r="AB81"/>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B82" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C82" t="s">
         <v>30</v>
       </c>
       <c r="D82" t="n">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="E82" t="n">
         <v>1</v>
       </c>
       <c r="F82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="I82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="J82" t="s">
         <v>33</v>
       </c>
       <c r="K82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="L82" t="s">
         <v>33</v>
       </c>
       <c r="M82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="O82" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P82" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="Q82" t="s">
         <v>33</v>
       </c>
       <c r="R82" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="S82" t="s">
         <v>33</v>
@@ -7261,43 +7278,43 @@
         <v>34</v>
       </c>
       <c r="U82" t="s">
-        <v>137</v>
-      </c>
-      <c r="V82"/>
-      <c r="W82" t="s">
-        <v>32</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="V82" t="s">
+        <v>32</v>
+      </c>
+      <c r="W82"/>
       <c r="X82" t="s">
         <v>32</v>
       </c>
-      <c r="Y82" t="s">
-        <v>32</v>
-      </c>
+      <c r="Y82"/>
       <c r="Z82"/>
-      <c r="AA82"/>
+      <c r="AA82" t="s">
+        <v>32</v>
+      </c>
       <c r="AB82"/>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C83" t="s">
         <v>30</v>
       </c>
       <c r="D83" t="n">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="E83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H83" t="s">
         <v>31</v>
@@ -7306,10 +7323,10 @@
         <v>33</v>
       </c>
       <c r="J83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="L83" t="s">
         <v>33</v>
@@ -7321,16 +7338,16 @@
         <v>33</v>
       </c>
       <c r="O83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P83" t="s">
         <v>33</v>
       </c>
       <c r="Q83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R83" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="S83" t="s">
         <v>33</v>
@@ -7339,17 +7356,19 @@
         <v>34</v>
       </c>
       <c r="U83" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="V83" t="s">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="W83"/>
       <c r="X83" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Y83"/>
-      <c r="Z83"/>
+      <c r="Z83" t="s">
+        <v>32</v>
+      </c>
       <c r="AA83" t="s">
         <v>32</v>
       </c>
@@ -7357,25 +7376,25 @@
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="C84" t="s">
         <v>30</v>
       </c>
       <c r="D84" t="n">
-        <v>139</v>
+        <v>107</v>
       </c>
       <c r="E84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G84" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="H84" t="s">
         <v>31</v>
@@ -7387,28 +7406,28 @@
         <v>33</v>
       </c>
       <c r="K84" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="L84" t="s">
         <v>33</v>
       </c>
       <c r="M84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N84" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="O84" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="P84" t="s">
         <v>33</v>
       </c>
       <c r="Q84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S84" t="s">
         <v>33</v>
@@ -7417,17 +7436,407 @@
         <v>34</v>
       </c>
       <c r="U84" t="s">
-        <v>139</v>
-      </c>
-      <c r="V84"/>
-      <c r="W84"/>
+        <v>141</v>
+      </c>
+      <c r="V84" t="s">
+        <v>32</v>
+      </c>
+      <c r="W84" t="s">
+        <v>32</v>
+      </c>
       <c r="X84" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="Y84"/>
       <c r="Z84"/>
       <c r="AA84"/>
       <c r="AB84"/>
+    </row>
+    <row r="85">
+      <c r="A85" t="s">
+        <v>98</v>
+      </c>
+      <c r="B85" t="s">
+        <v>92</v>
+      </c>
+      <c r="C85" t="s">
+        <v>30</v>
+      </c>
+      <c r="D85" t="n">
+        <v>117</v>
+      </c>
+      <c r="E85" t="n">
+        <v>1</v>
+      </c>
+      <c r="F85" t="s">
+        <v>32</v>
+      </c>
+      <c r="G85" t="s">
+        <v>33</v>
+      </c>
+      <c r="H85" t="s">
+        <v>32</v>
+      </c>
+      <c r="I85" t="s">
+        <v>33</v>
+      </c>
+      <c r="J85" t="s">
+        <v>33</v>
+      </c>
+      <c r="K85" t="s">
+        <v>32</v>
+      </c>
+      <c r="L85" t="s">
+        <v>33</v>
+      </c>
+      <c r="M85" t="s">
+        <v>32</v>
+      </c>
+      <c r="N85" t="s">
+        <v>33</v>
+      </c>
+      <c r="O85" t="s">
+        <v>32</v>
+      </c>
+      <c r="P85" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q85" t="s">
+        <v>33</v>
+      </c>
+      <c r="R85" t="s">
+        <v>32</v>
+      </c>
+      <c r="S85" t="s">
+        <v>33</v>
+      </c>
+      <c r="T85" t="s">
+        <v>34</v>
+      </c>
+      <c r="U85" t="s">
+        <v>142</v>
+      </c>
+      <c r="V85" t="s">
+        <v>32</v>
+      </c>
+      <c r="W85"/>
+      <c r="X85" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y85"/>
+      <c r="Z85"/>
+      <c r="AA85" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB85"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="s">
+        <v>98</v>
+      </c>
+      <c r="B86" t="s">
+        <v>92</v>
+      </c>
+      <c r="C86" t="s">
+        <v>30</v>
+      </c>
+      <c r="D86" t="n">
+        <v>120</v>
+      </c>
+      <c r="E86" t="n">
+        <v>1</v>
+      </c>
+      <c r="F86" t="s">
+        <v>32</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>31</v>
+      </c>
+      <c r="I86" t="s">
+        <v>32</v>
+      </c>
+      <c r="J86" t="s">
+        <v>33</v>
+      </c>
+      <c r="K86" t="s">
+        <v>33</v>
+      </c>
+      <c r="L86" t="s">
+        <v>33</v>
+      </c>
+      <c r="M86" t="s">
+        <v>32</v>
+      </c>
+      <c r="N86" t="s">
+        <v>32</v>
+      </c>
+      <c r="O86" t="s">
+        <v>31</v>
+      </c>
+      <c r="P86" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q86" t="s">
+        <v>32</v>
+      </c>
+      <c r="R86" t="s">
+        <v>46</v>
+      </c>
+      <c r="S86" t="s">
+        <v>33</v>
+      </c>
+      <c r="T86" t="s">
+        <v>34</v>
+      </c>
+      <c r="U86" t="s">
+        <v>143</v>
+      </c>
+      <c r="V86" t="s">
+        <v>32</v>
+      </c>
+      <c r="W86" t="s">
+        <v>31</v>
+      </c>
+      <c r="X86" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y86"/>
+      <c r="Z86"/>
+      <c r="AA86"/>
+      <c r="AB86"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="s">
+        <v>98</v>
+      </c>
+      <c r="B87" t="s">
+        <v>84</v>
+      </c>
+      <c r="C87" t="s">
+        <v>30</v>
+      </c>
+      <c r="D87" t="n">
+        <v>136</v>
+      </c>
+      <c r="E87" t="n">
+        <v>1</v>
+      </c>
+      <c r="F87" t="s">
+        <v>33</v>
+      </c>
+      <c r="G87" t="s">
+        <v>32</v>
+      </c>
+      <c r="H87" t="s">
+        <v>31</v>
+      </c>
+      <c r="I87" t="s">
+        <v>32</v>
+      </c>
+      <c r="J87" t="s">
+        <v>33</v>
+      </c>
+      <c r="K87" t="s">
+        <v>33</v>
+      </c>
+      <c r="L87" t="s">
+        <v>33</v>
+      </c>
+      <c r="M87" t="s">
+        <v>33</v>
+      </c>
+      <c r="N87" t="s">
+        <v>32</v>
+      </c>
+      <c r="O87" t="s">
+        <v>31</v>
+      </c>
+      <c r="P87" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q87" t="s">
+        <v>33</v>
+      </c>
+      <c r="R87" t="s">
+        <v>46</v>
+      </c>
+      <c r="S87" t="s">
+        <v>33</v>
+      </c>
+      <c r="T87" t="s">
+        <v>34</v>
+      </c>
+      <c r="U87" t="s">
+        <v>144</v>
+      </c>
+      <c r="V87"/>
+      <c r="W87" t="s">
+        <v>32</v>
+      </c>
+      <c r="X87" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z87"/>
+      <c r="AA87"/>
+      <c r="AB87"/>
+    </row>
+    <row r="88">
+      <c r="A88" t="s">
+        <v>98</v>
+      </c>
+      <c r="B88" t="s">
+        <v>84</v>
+      </c>
+      <c r="C88" t="s">
+        <v>30</v>
+      </c>
+      <c r="D88" t="n">
+        <v>137</v>
+      </c>
+      <c r="E88" t="n">
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>31</v>
+      </c>
+      <c r="G88" t="s">
+        <v>33</v>
+      </c>
+      <c r="H88" t="s">
+        <v>31</v>
+      </c>
+      <c r="I88" t="s">
+        <v>33</v>
+      </c>
+      <c r="J88" t="s">
+        <v>33</v>
+      </c>
+      <c r="K88" t="s">
+        <v>31</v>
+      </c>
+      <c r="L88" t="s">
+        <v>33</v>
+      </c>
+      <c r="M88" t="s">
+        <v>32</v>
+      </c>
+      <c r="N88" t="s">
+        <v>33</v>
+      </c>
+      <c r="O88" t="s">
+        <v>31</v>
+      </c>
+      <c r="P88" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q88" t="s">
+        <v>33</v>
+      </c>
+      <c r="R88" t="s">
+        <v>31</v>
+      </c>
+      <c r="S88" t="s">
+        <v>33</v>
+      </c>
+      <c r="T88" t="s">
+        <v>34</v>
+      </c>
+      <c r="U88" t="s">
+        <v>145</v>
+      </c>
+      <c r="V88" t="s">
+        <v>46</v>
+      </c>
+      <c r="W88"/>
+      <c r="X88" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y88"/>
+      <c r="Z88"/>
+      <c r="AA88" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB88"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="s">
+        <v>98</v>
+      </c>
+      <c r="B89" t="s">
+        <v>84</v>
+      </c>
+      <c r="C89" t="s">
+        <v>30</v>
+      </c>
+      <c r="D89" t="n">
+        <v>139</v>
+      </c>
+      <c r="E89" t="n">
+        <v>1</v>
+      </c>
+      <c r="F89" t="s">
+        <v>31</v>
+      </c>
+      <c r="G89" t="s">
+        <v>32</v>
+      </c>
+      <c r="H89" t="s">
+        <v>31</v>
+      </c>
+      <c r="I89" t="s">
+        <v>32</v>
+      </c>
+      <c r="J89" t="s">
+        <v>33</v>
+      </c>
+      <c r="K89" t="s">
+        <v>31</v>
+      </c>
+      <c r="L89" t="s">
+        <v>33</v>
+      </c>
+      <c r="M89" t="s">
+        <v>33</v>
+      </c>
+      <c r="N89" t="s">
+        <v>33</v>
+      </c>
+      <c r="O89" t="s">
+        <v>31</v>
+      </c>
+      <c r="P89" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q89" t="s">
+        <v>33</v>
+      </c>
+      <c r="R89" t="s">
+        <v>33</v>
+      </c>
+      <c r="S89" t="s">
+        <v>33</v>
+      </c>
+      <c r="T89" t="s">
+        <v>34</v>
+      </c>
+      <c r="U89" t="s">
+        <v>146</v>
+      </c>
+      <c r="V89"/>
+      <c r="W89"/>
+      <c r="X89" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y89"/>
+      <c r="Z89"/>
+      <c r="AA89"/>
+      <c r="AB89"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
